--- a/SampleTest/resources/TestData.xlsx
+++ b/SampleTest/resources/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>riteshkumar78@gmail.com</t>
+  </si>
+  <si>
+    <t>Kashish</t>
+  </si>
+  <si>
+    <t>newMemberRegistration1</t>
+  </si>
+  <si>
+    <t>newMemberRegistration2</t>
+  </si>
+  <si>
+    <t>newMemberRegistration3</t>
   </si>
 </sst>
 </file>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +556,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
@@ -591,7 +603,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>34</v>
@@ -638,7 +650,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -685,13 +697,54 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
